--- a/Data and Statistics Foundation/Course 1 Final Assessment.xlsx
+++ b/Data and Statistics Foundation/Course 1 Final Assessment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24606"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nxg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b03a39e68183e059/Documents/Data Science for Investment Professionals/Data and Statistics Foundation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF4377-6302-45FA-B7A3-D3CA32055DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{52EF4377-6302-45FA-B7A3-D3CA32055DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32F9D3D0-6DC6-4A7B-B1FF-782FE5AFB7D6}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="2" activeTab="2" xr2:uid="{6C222054-6842-4B00-B43B-5B2FCBDC87DA}"/>
+    <workbookView xWindow="0" yWindow="1356" windowWidth="22920" windowHeight="11004" activeTab="1" xr2:uid="{6C222054-6842-4B00-B43B-5B2FCBDC87DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Data" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Small50" sheetId="8" r:id="rId3"/>
     <sheet name="SectorX" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -37,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
   <si>
     <t>Code</t>
   </si>
@@ -112,6 +110,9 @@
   </si>
   <si>
     <t>Technology</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -501,26 +502,26 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
     <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
-    <col min="18" max="18" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="7.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" customWidth="1"/>
-    <col min="22" max="22" width="11.5703125" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="11.5546875" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="18" max="18" width="11.33203125" customWidth="1"/>
+    <col min="20" max="20" width="7.44140625" customWidth="1"/>
+    <col min="21" max="21" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="11.5546875" customWidth="1"/>
+    <col min="23" max="23" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -9830,20 +9831,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FCD5A2-2632-4CB7-9E12-A066240257F9}">
   <dimension ref="A1:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P61" sqref="P61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
-    <col min="9" max="9" width="6.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="11" max="11" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -9880,7 +9881,9 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="1">
@@ -11899,18 +11902,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD53DDB-2FF3-4DFA-9809-9BF7CD21D3D2}">
   <dimension ref="A1:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:M58"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.109375" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -11947,7 +11950,9 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="P1" t="s">
         <v>13</v>
       </c>
@@ -13916,18 +13921,18 @@
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.44140625" customWidth="1"/>
+    <col min="16" max="16" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -14315,13 +14320,37 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DF16B93-7616-4CA6-9139-0C4768F8DCC7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DF16B93-7616-4CA6-9139-0C4768F8DCC7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="175f7c32-885c-4077-a7d8-67e8c0d28189"/>
+    <ds:schemaRef ds:uri="4ffc8792-f63a-47ac-b50f-c1c80c27ec09"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B11E48-3658-40D3-8AD6-59CDFC3E7977}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3B11E48-3658-40D3-8AD6-59CDFC3E7977}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DB21783-AD94-4C79-A2E8-D1BF1E1603B1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DB21783-AD94-4C79-A2E8-D1BF1E1603B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>